--- a/Parameters/ProjectsSubTypesDescriptions.xlsx
+++ b/Parameters/ProjectsSubTypesDescriptions.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\Parameters\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EF8378-93B5-42AD-8AEA-F5A9D1DED6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1521E9-C115-4198-A6AB-3B074E0AB068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +685,6 @@
       <c r="B33" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7F0d78DauzUvQcZVzqH9Uv3AnyKU8ofBUebZCPGr9lopwBYjEmnfgQXz+6/li05Vmw+pa8X7PdSVqqqsuFQyyQ==" saltValue="qOTGgWe1x5GtecIGl6XtjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Parameters/ProjectsSubTypesDescriptions.xlsx
+++ b/Parameters/ProjectsSubTypesDescriptions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1521E9-C115-4198-A6AB-3B074E0AB068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E20D8-8F42-4583-B805-A7B1D905783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>От</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Командировки (рабочее время в пути)</t>
+  </si>
+  <si>
+    <t>ProjectSubTypePersData</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1">
@@ -196,6 +199,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -480,209 +495,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parameters/ProjectsSubTypesDescriptions.xlsx
+++ b/Parameters/ProjectsSubTypesDescriptions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E20D8-8F42-4583-B805-A7B1D905783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C200FD6-811F-480B-92B1-BACB5C9A3F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>От</t>
   </si>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>ProjectSubTypePersData</t>
+  </si>
+  <si>
+    <t>ДП</t>
+  </si>
+  <si>
+    <t>Делопроизводство и ДО</t>
+  </si>
+  <si>
+    <t>ФГ</t>
+  </si>
+  <si>
+    <t>Функциональная группа</t>
+  </si>
+  <si>
+    <t>Прс</t>
+  </si>
+  <si>
+    <t>Пресейл</t>
+  </si>
+  <si>
+    <t>АМ</t>
+  </si>
+  <si>
+    <t>Аккаунт-Менеджеры</t>
   </si>
 </sst>
 </file>
@@ -495,10 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,29 +699,53 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -762,6 +811,21 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parameters/ProjectsSubTypesDescriptions.xlsx
+++ b/Parameters/ProjectsSubTypesDescriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C200FD6-811F-480B-92B1-BACB5C9A3F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71ECCB8-E1BE-4481-BCA9-B7E4C429132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,123 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>От</t>
-  </si>
-  <si>
-    <t>УП</t>
-  </si>
-  <si>
-    <t>БЛ</t>
-  </si>
-  <si>
-    <t>О+Р</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ProjectSubTypeName</t>
-  </si>
-  <si>
-    <t>Отпуск</t>
-  </si>
-  <si>
-    <t>Управление персоналом</t>
-  </si>
-  <si>
-    <t>Больничный лист</t>
-  </si>
-  <si>
-    <t>Обучение и развитие</t>
-  </si>
-  <si>
-    <t>А_Прочее</t>
-  </si>
-  <si>
-    <t>В_Прочее</t>
-  </si>
-  <si>
-    <t>Д_Прочее</t>
-  </si>
-  <si>
-    <t>И_Прочее</t>
-  </si>
-  <si>
-    <t>С_Прочее</t>
-  </si>
-  <si>
-    <t>Т_Прочее</t>
-  </si>
-  <si>
-    <t>П_Прочее</t>
-  </si>
-  <si>
-    <t>S_Прочее</t>
-  </si>
-  <si>
-    <t>Н_Прочее</t>
-  </si>
-  <si>
-    <t>Административные проекты</t>
-  </si>
-  <si>
-    <t>Внутренние проекты</t>
-  </si>
-  <si>
-    <t>Допсопровождение</t>
-  </si>
-  <si>
-    <t>Инвестиционные проекты</t>
-  </si>
-  <si>
-    <t>Сопровождение</t>
-  </si>
-  <si>
-    <t>Поддержка</t>
-  </si>
-  <si>
-    <t>Проектные работы</t>
-  </si>
-  <si>
-    <t>Технический проект</t>
-  </si>
-  <si>
-    <t>Проекты внутренней автоматизации</t>
   </si>
   <si>
     <t>ProjectSubTypeDescription</t>
   </si>
   <si>
-    <t>КомВПути</t>
-  </si>
-  <si>
-    <t>Командировки (рабочее время в пути)</t>
-  </si>
-  <si>
     <t>ProjectSubTypePersData</t>
-  </si>
-  <si>
-    <t>ДП</t>
-  </si>
-  <si>
-    <t>Делопроизводство и ДО</t>
-  </si>
-  <si>
-    <t>ФГ</t>
-  </si>
-  <si>
-    <t>Функциональная группа</t>
-  </si>
-  <si>
-    <t>Прс</t>
-  </si>
-  <si>
-    <t>Пресейл</t>
-  </si>
-  <si>
-    <t>АМ</t>
-  </si>
-  <si>
-    <t>Аккаунт-Менеджеры</t>
   </si>
 </sst>
 </file>
@@ -523,7 +415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,212 +427,104 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
